--- a/biology/Neurosciences/Arthur_Lester_Benton/Arthur_Lester_Benton.xlsx
+++ b/biology/Neurosciences/Arthur_Lester_Benton/Arthur_Lester_Benton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Lester Benton, né le 16 octobre 1909 à New York et mort le 27 décembre 2006 à Glenview (Illinois) est un neurologue et neuropsychologue américain, professeur émérite à l'université de l'Iowa.
 </t>
@@ -513,15 +525,125 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Jeunesse et formation
-Il fait ses études à Oberlin College  dans l'Ohio, où il obtient son Bachelor of Arts (AB) en 1931 et son Master of Arts en 1933. Après un doctorat en médecine à l'université Columbia en 1935, il suit une formation complémentaire en psychologie à la Payne Whitney Psychiatric Clinic du New York Hospital.
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études à Oberlin College  dans l'Ohio, où il obtient son Bachelor of Arts (AB) en 1931 et son Master of Arts en 1933. Après un doctorat en médecine à l'université Columbia en 1935, il suit une formation complémentaire en psychologie à la Payne Whitney Psychiatric Clinic du New York Hospital.
 Au début de 1941, Benton se porte volontaire pour le service dans la marine américaine avec le grade de lieutenant au sein du département médical. Son service actif dure jusqu'en 1945 ; il est suivi de nombreuses années de service comme officier réserve de l'US Navy, ce qui lui permet atteindre le grade de capitaine lors de son départ à la retraite.
-Carrière académique
-En 1946, il accepte un poste de professeur agrégé de psychologie à l'université de Louisville, dans le Kentucky. En 1948, il est nommé professeur et directeur de la formation supérieure en psychologie clinique l'université de l'Iowa. En 1958, il devient professeur de psychologie et de neurologie, prenant sa retraite en 1978, date à laquelle est inauguré le laboratoire Benton de neuropsychologie (Benton Laboratory of Neuropsychology), dans la division de neurologie comportementale. À l'université de l'Iowa, il a dirigé 46 thèses de doctorat et 24 thèses de maîtrise. Il est l'auteur de nombreux ouvrages et le créateur d'un certain nombre de tests neuropsychologiques, dont le Benton Visual Retention Test (en) (BVRT).
-Vie personnelle
-Arthur L. Benton était l'époux de la musicologue Rita Benton (1918-1980), rencontrée en France, elle aussi enseignante à l'université de l'Iowa, et le père de Raymond Stetson Benton, Abigail Benton Sivan et Daniel Joseph Benton.
-Récompenses et honneurs
-Distinguished Professional Contribution Award de l'American Psychological Association (1978)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Arthur_Lester_Benton</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Lester_Benton</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière académique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1946, il accepte un poste de professeur agrégé de psychologie à l'université de Louisville, dans le Kentucky. En 1948, il est nommé professeur et directeur de la formation supérieure en psychologie clinique l'université de l'Iowa. En 1958, il devient professeur de psychologie et de neurologie, prenant sa retraite en 1978, date à laquelle est inauguré le laboratoire Benton de neuropsychologie (Benton Laboratory of Neuropsychology), dans la division de neurologie comportementale. À l'université de l'Iowa, il a dirigé 46 thèses de doctorat et 24 thèses de maîtrise. Il est l'auteur de nombreux ouvrages et le créateur d'un certain nombre de tests neuropsychologiques, dont le Benton Visual Retention Test (en) (BVRT).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arthur_Lester_Benton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Lester_Benton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie personnelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arthur L. Benton était l'époux de la musicologue Rita Benton (1918-1980), rencontrée en France, elle aussi enseignante à l'université de l'Iowa, et le père de Raymond Stetson Benton, Abigail Benton Sivan et Daniel Joseph Benton.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arthur_Lester_Benton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Lester_Benton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Récompenses et honneurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Distinguished Professional Contribution Award de l'American Psychological Association (1978)
 Contribution scientifique exceptionnelle de la Société internationale de neuropsychologie (1981)
 Prix Samuel-Torrey-Orton de la Orton Dyslexia Society (1982)
 Distinguished Service and Outstanding Contribution Award de l' American Board of Professional Psychology (1985)
